--- a/hardware/component_selection.xlsx
+++ b/hardware/component_selection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="2140" windowWidth="25600" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>http://www.digikey.com/product-search/en?FV=fff40027%2Cfff80182%2C1c0002%2C1c0006%2Cc00016%2C1140003%2C1fc11c3%2C204003c&amp;k=LDO&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=1&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=500</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>QueryLink</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?FV=fff40042%2Cfff800df%2C1c0002%2C1c0003%2C1c0006%2C1c0011%2C1140003%2C15c0002%2C17d4005e&amp;k=switching+power+supply&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=1&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +97,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,14 +135,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -530,8 +568,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
